--- a/biorefineries/TAL/analyses/results/TAL_2024/full/baseline_C.xlsx
+++ b/biorefineries/TAL/analyses/results/TAL_2024/full/baseline_C.xlsx
@@ -2209,7 +2209,7 @@
         <v>0.9336273707906445</v>
       </c>
       <c r="E4" t="n">
-        <v>2.847554761578754</v>
+        <v>2.847554761578757</v>
       </c>
       <c r="F4" t="n">
         <v>17.86854060153111</v>
@@ -2233,13 +2233,13 @@
         <v>26.31876178875325</v>
       </c>
       <c r="M4" t="n">
-        <v>50.88164787235321</v>
+        <v>50.88164787235326</v>
       </c>
       <c r="N4" t="n">
         <v>15.24554865566659</v>
       </c>
       <c r="O4" t="n">
-        <v>-4.959292709827423e-08</v>
+        <v>4.468020051717758e-07</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>13.64889863332282</v>
       </c>
       <c r="BD4" t="n">
-        <v>36.18618662229626</v>
+        <v>36.18618662229625</v>
       </c>
       <c r="BE4" t="n">
         <v>138.725242027635</v>
@@ -2782,13 +2782,13 @@
         <v>0.3946459751871603</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.0003774610296122837</v>
+        <v>0.0003774610296122838</v>
       </c>
       <c r="GO4" t="n">
         <v>0.0506748325304343</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.08918630100966503</v>
+        <v>0.08918630100966506</v>
       </c>
       <c r="GQ4" t="n">
         <v>0.05893572507200456</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="GT4" t="n">
-        <v>6.313059982402813e-06</v>
+        <v>6.313059982402814e-06</v>
       </c>
       <c r="GU4" t="n">
-        <v>6.364739551684041e-06</v>
+        <v>6.364739551684042e-06</v>
       </c>
       <c r="GV4" t="n">
-        <v>5.747750420981031e-07</v>
+        <v>5.747750420981032e-07</v>
       </c>
       <c r="GW4" t="n">
         <v>3.780057392082278e-05</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.00695741598349079</v>
+        <v>0.006957415983490791</v>
       </c>
       <c r="GY4" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>-4.740800252287888</v>
       </c>
       <c r="HR4" t="n">
-        <v>12.24896019795276</v>
+        <v>0.8511158579382507</v>
       </c>
       <c r="HS4" t="n">
         <v>3.196433947004628</v>
@@ -2947,7 +2947,7 @@
         <v>-0.6745058425684975</v>
       </c>
       <c r="IQ4" t="n">
-        <v>1.742742739460688</v>
+        <v>0.1210940323007703</v>
       </c>
       <c r="IR4" t="n">
         <v>0.4547783618595664</v>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.07238420684529417</v>
+        <v>0.07238420684529415</v>
       </c>
       <c r="EU5" t="n">
         <v>0.1919077204998818</v>
@@ -3692,7 +3692,7 @@
         <v>-4.740804171827203</v>
       </c>
       <c r="HR5" t="n">
-        <v>12.24895967901077</v>
+        <v>0.8511157608343751</v>
       </c>
       <c r="HS5" t="n">
         <v>3.196434015236792</v>
@@ -3767,7 +3767,7 @@
         <v>-0.6745065103598658</v>
       </c>
       <c r="IQ5" t="n">
-        <v>1.74274295017841</v>
+        <v>0.1210940382571029</v>
       </c>
       <c r="IR5" t="n">
         <v>0.4547784458226145</v>
